--- a/assets/backend/files/format_target_ta.xlsx
+++ b/assets/backend/files/format_target_ta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>NIK</t>
   </si>
@@ -35,9 +35,6 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>SEKTOR</t>
-  </si>
-  <si>
     <t>LEVEL</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
   </si>
   <si>
     <t>BAYU AGUNG RIYANTORO</t>
-  </si>
-  <si>
-    <t>PEKALONGAN 1</t>
-  </si>
-  <si>
-    <t>PEKALONGAN 2</t>
   </si>
   <si>
     <t>Teknisi</t>
@@ -461,24 +452,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,315 +479,273 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>94170021</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19900101</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>97150012</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>97156033</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17790315</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18990150</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>87157545</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>87157221</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>96155464</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19980110</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>92170416</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20180126</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18910087</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
